--- a/FY24 Projects DRAFT-v6.xlsx
+++ b/FY24 Projects DRAFT-v6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsteel01\Box\01 - P Drive 2\Employment\Goals\FY24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0E123-0ED1-4126-BA78-9F646210BE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96581A64-CE74-4C2A-A4AE-A8C51E5707F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A9DDD929-39F7-4D1E-ADFC-1FBC098A0B9E}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
